--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Nlgn2-Nrxn2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Nlgn2-Nrxn2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>4.251817</v>
+        <v>3.1358715</v>
       </c>
       <c r="H2">
-        <v>8.503634</v>
+        <v>6.271743000000001</v>
       </c>
       <c r="I2">
-        <v>0.1861558314838932</v>
+        <v>0.1851936164128898</v>
       </c>
       <c r="J2">
-        <v>0.1536281284831583</v>
+        <v>0.1557817298248122</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -561,28 +561,28 @@
         <v>0.5</v>
       </c>
       <c r="M2">
-        <v>0.1657755</v>
+        <v>0.119919</v>
       </c>
       <c r="N2">
-        <v>0.331551</v>
+        <v>0.239838</v>
       </c>
       <c r="O2">
-        <v>0.2699314894696778</v>
+        <v>0.1662378913821135</v>
       </c>
       <c r="P2">
-        <v>0.1977470443899175</v>
+        <v>0.1399306991867452</v>
       </c>
       <c r="Q2">
-        <v>0.7048470890835001</v>
+        <v>0.3760505744085</v>
       </c>
       <c r="R2">
-        <v>2.819388356334001</v>
+        <v>1.504202297634</v>
       </c>
       <c r="S2">
-        <v>0.05024932086591363</v>
+        <v>0.03078619628990677</v>
       </c>
       <c r="T2">
-        <v>0.03037950834269905</v>
+        <v>0.02179864637490661</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>4.251817</v>
+        <v>3.1358715</v>
       </c>
       <c r="H3">
-        <v>8.503634</v>
+        <v>6.271743000000001</v>
       </c>
       <c r="I3">
-        <v>0.1861558314838932</v>
+        <v>0.1851936164128898</v>
       </c>
       <c r="J3">
-        <v>0.1536281284831583</v>
+        <v>0.1557817298248122</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,28 +623,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.2712373333333334</v>
+        <v>0.2712373333333333</v>
       </c>
       <c r="N3">
-        <v>0.8137120000000001</v>
+        <v>0.813712</v>
       </c>
       <c r="O3">
-        <v>0.4416545109889589</v>
+        <v>0.3760031551083713</v>
       </c>
       <c r="P3">
-        <v>0.4853224480837293</v>
+        <v>0.4747508280449504</v>
       </c>
       <c r="Q3">
-        <v>1.153251504901333</v>
+        <v>0.850565423336</v>
       </c>
       <c r="R3">
-        <v>6.919509029408001</v>
+        <v>5.103392540016</v>
       </c>
       <c r="S3">
-        <v>0.08221656272176189</v>
+        <v>0.06963338407717605</v>
       </c>
       <c r="T3">
-        <v>0.07455917940996808</v>
+        <v>0.07395750522860434</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,7 +658,7 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -667,108 +667,108 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>4.251817</v>
+        <v>3.1358715</v>
       </c>
       <c r="H4">
-        <v>8.503634</v>
+        <v>6.271743000000001</v>
       </c>
       <c r="I4">
-        <v>0.1861558314838932</v>
+        <v>0.1851936164128898</v>
       </c>
       <c r="J4">
-        <v>0.1536281284831583</v>
+        <v>0.1557817298248122</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="M4">
-        <v>0.1329496666666667</v>
+        <v>0.3302135</v>
       </c>
       <c r="N4">
-        <v>0.398849</v>
+        <v>0.660427</v>
       </c>
       <c r="O4">
-        <v>0.2164813349851486</v>
+        <v>0.4577589535095151</v>
       </c>
       <c r="P4">
-        <v>0.237885607064597</v>
+        <v>0.3853184727683044</v>
       </c>
       <c r="Q4">
-        <v>0.5652776528776666</v>
+        <v>1.03550710356525</v>
       </c>
       <c r="R4">
-        <v>3.391665917266</v>
+        <v>4.142028414261</v>
       </c>
       <c r="S4">
-        <v>0.04029926291490356</v>
+        <v>0.08477403604580701</v>
       </c>
       <c r="T4">
-        <v>0.03654592060641401</v>
+        <v>0.06002557822130124</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
         <v>20</v>
       </c>
-      <c r="B5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>4.251817</v>
+        <v>6.108690666666667</v>
       </c>
       <c r="H5">
-        <v>8.503634</v>
+        <v>18.326072</v>
       </c>
       <c r="I5">
-        <v>0.1861558314838932</v>
+        <v>0.360757931601364</v>
       </c>
       <c r="J5">
-        <v>0.1536281284831583</v>
+        <v>0.4551951821134977</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="M5">
-        <v>0.04417666666666667</v>
+        <v>0.119919</v>
       </c>
       <c r="N5">
-        <v>0.13253</v>
+        <v>0.239838</v>
       </c>
       <c r="O5">
-        <v>0.07193266455621487</v>
+        <v>0.1662378913821135</v>
       </c>
       <c r="P5">
-        <v>0.07904490046175629</v>
+        <v>0.1399306991867452</v>
       </c>
       <c r="Q5">
-        <v>0.1878311023366667</v>
+        <v>0.732548076056</v>
       </c>
       <c r="R5">
-        <v>1.12698661402</v>
+        <v>4.395288456336</v>
       </c>
       <c r="S5">
-        <v>0.01339068498131415</v>
+        <v>0.05997163784878349</v>
       </c>
       <c r="T5">
-        <v>0.01214352012407715</v>
+        <v>0.06369578009957956</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,7 +782,7 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -797,40 +797,40 @@
         <v>18.326072</v>
       </c>
       <c r="I6">
-        <v>0.2674546882735619</v>
+        <v>0.360757931601364</v>
       </c>
       <c r="J6">
-        <v>0.3310819990380124</v>
+        <v>0.4551951821134977</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.1657755</v>
+        <v>0.2712373333333333</v>
       </c>
       <c r="N6">
-        <v>0.331551</v>
+        <v>0.813712</v>
       </c>
       <c r="O6">
-        <v>0.2699314894696778</v>
+        <v>0.3760031551083713</v>
       </c>
       <c r="P6">
-        <v>0.1977470443899175</v>
+        <v>0.4747508280449504</v>
       </c>
       <c r="Q6">
-        <v>1.012671249612</v>
+        <v>1.656904966584889</v>
       </c>
       <c r="R6">
-        <v>6.076027497672</v>
+        <v>14.912144699264</v>
       </c>
       <c r="S6">
-        <v>0.07219444237133094</v>
+        <v>0.1356461205124829</v>
       </c>
       <c r="T6">
-        <v>0.06547048676047244</v>
+        <v>0.2161042896304551</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,7 +844,7 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -859,45 +859,45 @@
         <v>18.326072</v>
       </c>
       <c r="I7">
-        <v>0.2674546882735619</v>
+        <v>0.360757931601364</v>
       </c>
       <c r="J7">
-        <v>0.3310819990380124</v>
+        <v>0.4551951821134977</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M7">
-        <v>0.2712373333333334</v>
+        <v>0.3302135</v>
       </c>
       <c r="N7">
-        <v>0.8137120000000001</v>
+        <v>0.660427</v>
       </c>
       <c r="O7">
-        <v>0.4416545109889589</v>
+        <v>0.4577589535095151</v>
       </c>
       <c r="P7">
-        <v>0.4853224480837293</v>
+        <v>0.3853184727683044</v>
       </c>
       <c r="Q7">
-        <v>1.656904966584889</v>
+        <v>2.017172125457333</v>
       </c>
       <c r="R7">
-        <v>14.912144699264</v>
+        <v>12.103032752744</v>
       </c>
       <c r="S7">
-        <v>0.1181225695611644</v>
+        <v>0.1651401732400976</v>
       </c>
       <c r="T7">
-        <v>0.1606815262895831</v>
+        <v>0.1753951123834631</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
         <v>26</v>
@@ -906,117 +906,117 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>6.108690666666667</v>
+        <v>0.208691</v>
       </c>
       <c r="H8">
-        <v>18.326072</v>
+        <v>0.626073</v>
       </c>
       <c r="I8">
-        <v>0.2674546882735619</v>
+        <v>0.01232456145056403</v>
       </c>
       <c r="J8">
-        <v>0.3310819990380124</v>
+        <v>0.01555081815957854</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="M8">
-        <v>0.1329496666666667</v>
+        <v>0.119919</v>
       </c>
       <c r="N8">
-        <v>0.398849</v>
+        <v>0.239838</v>
       </c>
       <c r="O8">
-        <v>0.2164813349851486</v>
+        <v>0.1662378913821135</v>
       </c>
       <c r="P8">
-        <v>0.237885607064597</v>
+        <v>0.1399306991867452</v>
       </c>
       <c r="Q8">
-        <v>0.8121483879031111</v>
+        <v>0.025026016029</v>
       </c>
       <c r="R8">
-        <v>7.309335491128</v>
+        <v>0.150156096174</v>
       </c>
       <c r="S8">
-        <v>0.05789894796549745</v>
+        <v>0.002048809107751046</v>
       </c>
       <c r="T8">
-        <v>0.07875964232931788</v>
+        <v>0.00217603685799576</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
         <v>21</v>
       </c>
-      <c r="B9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" t="s">
-        <v>25</v>
-      </c>
       <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G9">
+        <v>0.208691</v>
+      </c>
+      <c r="H9">
+        <v>0.626073</v>
+      </c>
+      <c r="I9">
+        <v>0.01232456145056403</v>
+      </c>
+      <c r="J9">
+        <v>0.01555081815957854</v>
+      </c>
+      <c r="K9">
         <v>3</v>
       </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>6.108690666666667</v>
-      </c>
-      <c r="H9">
-        <v>18.326072</v>
-      </c>
-      <c r="I9">
-        <v>0.2674546882735619</v>
-      </c>
-      <c r="J9">
-        <v>0.3310819990380124</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.04417666666666667</v>
+        <v>0.2712373333333333</v>
       </c>
       <c r="N9">
-        <v>0.13253</v>
+        <v>0.813712</v>
       </c>
       <c r="O9">
-        <v>0.07193266455621487</v>
+        <v>0.3760031551083713</v>
       </c>
       <c r="P9">
-        <v>0.07904490046175629</v>
+        <v>0.4747508280449504</v>
       </c>
       <c r="Q9">
-        <v>0.2698615913511112</v>
+        <v>0.05660479033066666</v>
       </c>
       <c r="R9">
-        <v>2.42875432216</v>
+        <v>0.509443112976</v>
       </c>
       <c r="S9">
-        <v>0.01923872837556915</v>
+        <v>0.00463407399073908</v>
       </c>
       <c r="T9">
-        <v>0.02617034365863898</v>
+        <v>0.007382763798036366</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,25 +1030,25 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>0.2642203333333333</v>
+        <v>0.208691</v>
       </c>
       <c r="H10">
-        <v>0.7926610000000001</v>
+        <v>0.626073</v>
       </c>
       <c r="I10">
-        <v>0.01156826736583868</v>
+        <v>0.01232456145056403</v>
       </c>
       <c r="J10">
-        <v>0.01432035127000865</v>
+        <v>0.01555081815957854</v>
       </c>
       <c r="K10">
         <v>1</v>
@@ -1057,33 +1057,33 @@
         <v>0.5</v>
       </c>
       <c r="M10">
-        <v>0.1657755</v>
+        <v>0.3302135</v>
       </c>
       <c r="N10">
-        <v>0.331551</v>
+        <v>0.660427</v>
       </c>
       <c r="O10">
-        <v>0.2699314894696778</v>
+        <v>0.4577589535095151</v>
       </c>
       <c r="P10">
-        <v>0.1977470443899175</v>
+        <v>0.3853184727683044</v>
       </c>
       <c r="Q10">
-        <v>0.0438012578685</v>
+        <v>0.06891258552849999</v>
       </c>
       <c r="R10">
-        <v>0.262807547211</v>
+        <v>0.413475513171</v>
       </c>
       <c r="S10">
-        <v>0.003122639640644299</v>
+        <v>0.0056416783520739</v>
       </c>
       <c r="T10">
-        <v>0.002831807138269611</v>
+        <v>0.005992017503546419</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -1092,60 +1092,60 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.2642203333333333</v>
+        <v>7.403123000000001</v>
       </c>
       <c r="H11">
-        <v>0.7926610000000001</v>
+        <v>14.806246</v>
       </c>
       <c r="I11">
-        <v>0.01156826736583868</v>
+        <v>0.437202583434762</v>
       </c>
       <c r="J11">
-        <v>0.01432035127000865</v>
+        <v>0.3677673996035402</v>
       </c>
       <c r="K11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M11">
-        <v>0.2712373333333334</v>
+        <v>0.119919</v>
       </c>
       <c r="N11">
-        <v>0.8137120000000001</v>
+        <v>0.239838</v>
       </c>
       <c r="O11">
-        <v>0.4416545109889589</v>
+        <v>0.1662378913821135</v>
       </c>
       <c r="P11">
-        <v>0.4853224480837293</v>
+        <v>0.1399306991867452</v>
       </c>
       <c r="Q11">
-        <v>0.07166641862577779</v>
+        <v>0.8877751070370001</v>
       </c>
       <c r="R11">
-        <v>0.6449977676320001</v>
+        <v>3.551100428148001</v>
       </c>
       <c r="S11">
-        <v>0.005109177466449012</v>
+        <v>0.07267963557700739</v>
       </c>
       <c r="T11">
-        <v>0.006949987935779539</v>
+        <v>0.05146194936461451</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1154,60 +1154,60 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>7.403123000000001</v>
+      </c>
+      <c r="H12">
+        <v>14.806246</v>
+      </c>
+      <c r="I12">
+        <v>0.437202583434762</v>
+      </c>
+      <c r="J12">
+        <v>0.3677673996035402</v>
+      </c>
+      <c r="K12">
         <v>3</v>
       </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12">
-        <v>0.2642203333333333</v>
-      </c>
-      <c r="H12">
-        <v>0.7926610000000001</v>
-      </c>
-      <c r="I12">
-        <v>0.01156826736583868</v>
-      </c>
-      <c r="J12">
-        <v>0.01432035127000865</v>
-      </c>
-      <c r="K12">
-        <v>2</v>
-      </c>
       <c r="L12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M12">
-        <v>0.1329496666666667</v>
+        <v>0.2712373333333333</v>
       </c>
       <c r="N12">
-        <v>0.398849</v>
+        <v>0.813712</v>
       </c>
       <c r="O12">
-        <v>0.2164813349851486</v>
+        <v>0.3760031551083713</v>
       </c>
       <c r="P12">
-        <v>0.237885607064597</v>
+        <v>0.4747508280449504</v>
       </c>
       <c r="Q12">
-        <v>0.03512800524322222</v>
+        <v>2.008003340858667</v>
       </c>
       <c r="R12">
-        <v>0.316152047189</v>
+        <v>12.048020045152</v>
       </c>
       <c r="S12">
-        <v>0.002504313962821884</v>
+        <v>0.1643895507930015</v>
       </c>
       <c r="T12">
-        <v>0.00340660545524428</v>
+        <v>0.1745978774897189</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1216,60 +1216,60 @@
         <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.2642203333333333</v>
+        <v>7.403123000000001</v>
       </c>
       <c r="H13">
-        <v>0.7926610000000001</v>
+        <v>14.806246</v>
       </c>
       <c r="I13">
-        <v>0.01156826736583868</v>
+        <v>0.437202583434762</v>
       </c>
       <c r="J13">
-        <v>0.01432035127000865</v>
+        <v>0.3677673996035402</v>
       </c>
       <c r="K13">
         <v>1</v>
       </c>
       <c r="L13">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="M13">
-        <v>0.04417666666666667</v>
+        <v>0.3302135</v>
       </c>
       <c r="N13">
-        <v>0.13253</v>
+        <v>0.660427</v>
       </c>
       <c r="O13">
-        <v>0.07193266455621487</v>
+        <v>0.4577589535095151</v>
       </c>
       <c r="P13">
-        <v>0.07904490046175629</v>
+        <v>0.3853184727683044</v>
       </c>
       <c r="Q13">
-        <v>0.01167237359222222</v>
+        <v>2.4446111567605</v>
       </c>
       <c r="R13">
-        <v>0.10505136233</v>
+        <v>9.778444627042001</v>
       </c>
       <c r="S13">
-        <v>0.0008321362959234808</v>
+        <v>0.2001333970647531</v>
       </c>
       <c r="T13">
-        <v>0.001131950740715219</v>
+        <v>0.1417075727492068</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B14" t="s">
         <v>26</v>
@@ -1284,19 +1284,19 @@
         <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>8.916406</v>
+        <v>0.05791866666666667</v>
       </c>
       <c r="H14">
-        <v>17.832812</v>
+        <v>0.173756</v>
       </c>
       <c r="I14">
-        <v>0.3903839165180379</v>
+        <v>0.003420474129061952</v>
       </c>
       <c r="J14">
-        <v>0.3221706782243929</v>
+        <v>0.004315867255313246</v>
       </c>
       <c r="K14">
         <v>1</v>
@@ -1305,33 +1305,33 @@
         <v>0.5</v>
       </c>
       <c r="M14">
-        <v>0.1657755</v>
+        <v>0.119919</v>
       </c>
       <c r="N14">
-        <v>0.331551</v>
+        <v>0.239838</v>
       </c>
       <c r="O14">
-        <v>0.2699314894696778</v>
+        <v>0.1662378913821135</v>
       </c>
       <c r="P14">
-        <v>0.1977470443899175</v>
+        <v>0.1399306991867452</v>
       </c>
       <c r="Q14">
-        <v>1.478121662853</v>
+        <v>0.006945548588</v>
       </c>
       <c r="R14">
-        <v>5.912486651412001</v>
+        <v>0.04167329152800001</v>
       </c>
       <c r="S14">
-        <v>0.1053769120507203</v>
+        <v>0.0005686124067423301</v>
       </c>
       <c r="T14">
-        <v>0.06370829940796884</v>
+        <v>0.0006039223226331615</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B15" t="s">
         <v>26</v>
@@ -1346,19 +1346,19 @@
         <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>8.916406</v>
+        <v>0.05791866666666667</v>
       </c>
       <c r="H15">
-        <v>17.832812</v>
+        <v>0.173756</v>
       </c>
       <c r="I15">
-        <v>0.3903839165180379</v>
+        <v>0.003420474129061952</v>
       </c>
       <c r="J15">
-        <v>0.3221706782243929</v>
+        <v>0.004315867255313246</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,95 +1367,95 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.2712373333333334</v>
+        <v>0.2712373333333333</v>
       </c>
       <c r="N15">
-        <v>0.8137120000000001</v>
+        <v>0.813712</v>
       </c>
       <c r="O15">
-        <v>0.4416545109889589</v>
+        <v>0.3760031551083713</v>
       </c>
       <c r="P15">
-        <v>0.4853224480837293</v>
+        <v>0.4747508280449504</v>
       </c>
       <c r="Q15">
-        <v>2.418462186357334</v>
+        <v>0.01570970469688889</v>
       </c>
       <c r="R15">
-        <v>14.510773118144</v>
+        <v>0.141387342272</v>
       </c>
       <c r="S15">
-        <v>0.1724148177477286</v>
+        <v>0.001286109064493852</v>
       </c>
       <c r="T15">
-        <v>0.1563566622566578</v>
+        <v>0.002048961553192051</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
         <v>23</v>
-      </c>
-      <c r="B16" t="s">
-        <v>26</v>
-      </c>
-      <c r="C16" t="s">
-        <v>27</v>
-      </c>
-      <c r="D16" t="s">
-        <v>24</v>
       </c>
       <c r="E16">
         <v>2</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>8.916406</v>
+        <v>0.05791866666666667</v>
       </c>
       <c r="H16">
-        <v>17.832812</v>
+        <v>0.173756</v>
       </c>
       <c r="I16">
-        <v>0.3903839165180379</v>
+        <v>0.003420474129061952</v>
       </c>
       <c r="J16">
-        <v>0.3221706782243929</v>
+        <v>0.004315867255313246</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L16">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="M16">
-        <v>0.1329496666666667</v>
+        <v>0.3302135</v>
       </c>
       <c r="N16">
-        <v>0.398849</v>
+        <v>0.660427</v>
       </c>
       <c r="O16">
-        <v>0.2164813349851486</v>
+        <v>0.4577589535095151</v>
       </c>
       <c r="P16">
-        <v>0.237885607064597</v>
+        <v>0.3853184727683044</v>
       </c>
       <c r="Q16">
-        <v>1.185433205564667</v>
+        <v>0.01912552563533334</v>
       </c>
       <c r="R16">
-        <v>7.112599233388001</v>
+        <v>0.114753153812</v>
       </c>
       <c r="S16">
-        <v>0.08451083140455565</v>
+        <v>0.001565752657825769</v>
       </c>
       <c r="T16">
-        <v>0.07663976736782263</v>
+        <v>0.001662983379488033</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B17" t="s">
         <v>26</v>
@@ -1464,60 +1464,60 @@
         <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>8.916406</v>
+        <v>0.01864033333333333</v>
       </c>
       <c r="H17">
-        <v>17.832812</v>
+        <v>0.055921</v>
       </c>
       <c r="I17">
-        <v>0.3903839165180379</v>
+        <v>0.001100832971357958</v>
       </c>
       <c r="J17">
-        <v>0.3221706782243929</v>
+        <v>0.001389003043258201</v>
       </c>
       <c r="K17">
         <v>1</v>
       </c>
       <c r="L17">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="M17">
-        <v>0.04417666666666667</v>
+        <v>0.119919</v>
       </c>
       <c r="N17">
-        <v>0.13253</v>
+        <v>0.239838</v>
       </c>
       <c r="O17">
-        <v>0.07193266455621487</v>
+        <v>0.1662378913821135</v>
       </c>
       <c r="P17">
-        <v>0.07904490046175629</v>
+        <v>0.1399306991867452</v>
       </c>
       <c r="Q17">
-        <v>0.3938970957266667</v>
+        <v>0.002235330133</v>
       </c>
       <c r="R17">
-        <v>2.36338257436</v>
+        <v>0.013411980798</v>
       </c>
       <c r="S17">
-        <v>0.02808135531503341</v>
+        <v>0.0001830001519224535</v>
       </c>
       <c r="T17">
-        <v>0.02546594919194365</v>
+        <v>0.000194364167015637</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -1526,60 +1526,60 @@
         <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G18">
+        <v>0.01864033333333333</v>
+      </c>
+      <c r="H18">
+        <v>0.055921</v>
+      </c>
+      <c r="I18">
+        <v>0.001100832971357958</v>
+      </c>
+      <c r="J18">
+        <v>0.001389003043258201</v>
+      </c>
+      <c r="K18">
         <v>3</v>
       </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-      <c r="G18">
-        <v>2.556341666666667</v>
-      </c>
-      <c r="H18">
-        <v>7.669025</v>
-      </c>
-      <c r="I18">
-        <v>0.1119234220370385</v>
-      </c>
-      <c r="J18">
-        <v>0.1385499373609627</v>
-      </c>
-      <c r="K18">
-        <v>1</v>
-      </c>
       <c r="L18">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M18">
-        <v>0.1657755</v>
+        <v>0.2712373333333333</v>
       </c>
       <c r="N18">
-        <v>0.331551</v>
+        <v>0.813712</v>
       </c>
       <c r="O18">
-        <v>0.2699314894696778</v>
+        <v>0.3760031551083713</v>
       </c>
       <c r="P18">
-        <v>0.1977470443899175</v>
+        <v>0.4747508280449504</v>
       </c>
       <c r="Q18">
-        <v>0.4237788179625001</v>
+        <v>0.005055954305777777</v>
       </c>
       <c r="R18">
-        <v>2.542672907775001</v>
+        <v>0.045503588752</v>
       </c>
       <c r="S18">
-        <v>0.03021165601700115</v>
+        <v>0.0004139166704779156</v>
       </c>
       <c r="T18">
-        <v>0.02739784061353858</v>
+        <v>0.0006594303449437871</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B19" t="s">
         <v>26</v>
@@ -1588,427 +1588,55 @@
         <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G19">
-        <v>2.556341666666667</v>
+        <v>0.01864033333333333</v>
       </c>
       <c r="H19">
-        <v>7.669025</v>
+        <v>0.055921</v>
       </c>
       <c r="I19">
-        <v>0.1119234220370385</v>
+        <v>0.001100832971357958</v>
       </c>
       <c r="J19">
-        <v>0.1385499373609627</v>
+        <v>0.001389003043258201</v>
       </c>
       <c r="K19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L19">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M19">
-        <v>0.2712373333333334</v>
+        <v>0.3302135</v>
       </c>
       <c r="N19">
-        <v>0.8137120000000001</v>
+        <v>0.660427</v>
       </c>
       <c r="O19">
-        <v>0.4416545109889589</v>
+        <v>0.4577589535095151</v>
       </c>
       <c r="P19">
-        <v>0.4853224480837293</v>
+        <v>0.3853184727683044</v>
       </c>
       <c r="Q19">
-        <v>0.6933752967555558</v>
+        <v>0.006155289711166666</v>
       </c>
       <c r="R19">
-        <v>6.240377670800001</v>
+        <v>0.036931738267</v>
       </c>
       <c r="S19">
-        <v>0.04943148422797909</v>
+        <v>0.0005039161489575889</v>
       </c>
       <c r="T19">
-        <v>0.06724139478186979</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20">
-      <c r="A20" t="s">
-        <v>24</v>
-      </c>
-      <c r="B20" t="s">
-        <v>26</v>
-      </c>
-      <c r="C20" t="s">
-        <v>27</v>
-      </c>
-      <c r="D20" t="s">
-        <v>24</v>
-      </c>
-      <c r="E20">
-        <v>3</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20">
-        <v>2.556341666666667</v>
-      </c>
-      <c r="H20">
-        <v>7.669025</v>
-      </c>
-      <c r="I20">
-        <v>0.1119234220370385</v>
-      </c>
-      <c r="J20">
-        <v>0.1385499373609627</v>
-      </c>
-      <c r="K20">
-        <v>2</v>
-      </c>
-      <c r="L20">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M20">
-        <v>0.1329496666666667</v>
-      </c>
-      <c r="N20">
-        <v>0.398849</v>
-      </c>
-      <c r="O20">
-        <v>0.2164813349851486</v>
-      </c>
-      <c r="P20">
-        <v>0.237885607064597</v>
-      </c>
-      <c r="Q20">
-        <v>0.3398647724694445</v>
-      </c>
-      <c r="R20">
-        <v>3.058782952225</v>
-      </c>
-      <c r="S20">
-        <v>0.02422933181868429</v>
-      </c>
-      <c r="T20">
-        <v>0.03295903595787451</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20">
-      <c r="A21" t="s">
-        <v>24</v>
-      </c>
-      <c r="B21" t="s">
-        <v>26</v>
-      </c>
-      <c r="C21" t="s">
-        <v>27</v>
-      </c>
-      <c r="D21" t="s">
-        <v>25</v>
-      </c>
-      <c r="E21">
-        <v>3</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>2.556341666666667</v>
-      </c>
-      <c r="H21">
-        <v>7.669025</v>
-      </c>
-      <c r="I21">
-        <v>0.1119234220370385</v>
-      </c>
-      <c r="J21">
-        <v>0.1385499373609627</v>
-      </c>
-      <c r="K21">
-        <v>1</v>
-      </c>
-      <c r="L21">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M21">
-        <v>0.04417666666666667</v>
-      </c>
-      <c r="N21">
-        <v>0.13253</v>
-      </c>
-      <c r="O21">
-        <v>0.07193266455621487</v>
-      </c>
-      <c r="P21">
-        <v>0.07904490046175629</v>
-      </c>
-      <c r="Q21">
-        <v>0.1129306536944445</v>
-      </c>
-      <c r="R21">
-        <v>1.01637588325</v>
-      </c>
-      <c r="S21">
-        <v>0.008050949973373956</v>
-      </c>
-      <c r="T21">
-        <v>0.01095166600767987</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20">
-      <c r="A22" t="s">
-        <v>25</v>
-      </c>
-      <c r="B22" t="s">
-        <v>26</v>
-      </c>
-      <c r="C22" t="s">
-        <v>27</v>
-      </c>
-      <c r="D22" t="s">
-        <v>20</v>
-      </c>
-      <c r="E22">
-        <v>3</v>
-      </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-      <c r="G22">
-        <v>0.7426199999999999</v>
-      </c>
-      <c r="H22">
-        <v>2.22786</v>
-      </c>
-      <c r="I22">
-        <v>0.03251387432162973</v>
-      </c>
-      <c r="J22">
-        <v>0.04024890562346509</v>
-      </c>
-      <c r="K22">
-        <v>1</v>
-      </c>
-      <c r="L22">
-        <v>0.5</v>
-      </c>
-      <c r="M22">
-        <v>0.1657755</v>
-      </c>
-      <c r="N22">
-        <v>0.331551</v>
-      </c>
-      <c r="O22">
-        <v>0.2699314894696778</v>
-      </c>
-      <c r="P22">
-        <v>0.1977470443899175</v>
-      </c>
-      <c r="Q22">
-        <v>0.12310820181</v>
-      </c>
-      <c r="R22">
-        <v>0.73864921086</v>
-      </c>
-      <c r="S22">
-        <v>0.008776518524067424</v>
-      </c>
-      <c r="T22">
-        <v>0.00795910212696895</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20">
-      <c r="A23" t="s">
-        <v>25</v>
-      </c>
-      <c r="B23" t="s">
-        <v>26</v>
-      </c>
-      <c r="C23" t="s">
-        <v>27</v>
-      </c>
-      <c r="D23" t="s">
-        <v>21</v>
-      </c>
-      <c r="E23">
-        <v>3</v>
-      </c>
-      <c r="F23">
-        <v>1</v>
-      </c>
-      <c r="G23">
-        <v>0.7426199999999999</v>
-      </c>
-      <c r="H23">
-        <v>2.22786</v>
-      </c>
-      <c r="I23">
-        <v>0.03251387432162973</v>
-      </c>
-      <c r="J23">
-        <v>0.04024890562346509</v>
-      </c>
-      <c r="K23">
-        <v>3</v>
-      </c>
-      <c r="L23">
-        <v>1</v>
-      </c>
-      <c r="M23">
-        <v>0.2712373333333334</v>
-      </c>
-      <c r="N23">
-        <v>0.8137120000000001</v>
-      </c>
-      <c r="O23">
-        <v>0.4416545109889589</v>
-      </c>
-      <c r="P23">
-        <v>0.4853224480837293</v>
-      </c>
-      <c r="Q23">
-        <v>0.20142626848</v>
-      </c>
-      <c r="R23">
-        <v>1.81283641632</v>
-      </c>
-      <c r="S23">
-        <v>0.01435989926387585</v>
-      </c>
-      <c r="T23">
-        <v>0.01953369740987106</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20">
-      <c r="A24" t="s">
-        <v>25</v>
-      </c>
-      <c r="B24" t="s">
-        <v>26</v>
-      </c>
-      <c r="C24" t="s">
-        <v>27</v>
-      </c>
-      <c r="D24" t="s">
-        <v>24</v>
-      </c>
-      <c r="E24">
-        <v>3</v>
-      </c>
-      <c r="F24">
-        <v>1</v>
-      </c>
-      <c r="G24">
-        <v>0.7426199999999999</v>
-      </c>
-      <c r="H24">
-        <v>2.22786</v>
-      </c>
-      <c r="I24">
-        <v>0.03251387432162973</v>
-      </c>
-      <c r="J24">
-        <v>0.04024890562346509</v>
-      </c>
-      <c r="K24">
-        <v>2</v>
-      </c>
-      <c r="L24">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M24">
-        <v>0.1329496666666667</v>
-      </c>
-      <c r="N24">
-        <v>0.398849</v>
-      </c>
-      <c r="O24">
-        <v>0.2164813349851486</v>
-      </c>
-      <c r="P24">
-        <v>0.237885607064597</v>
-      </c>
-      <c r="Q24">
-        <v>0.09873108145999999</v>
-      </c>
-      <c r="R24">
-        <v>0.8885797331399999</v>
-      </c>
-      <c r="S24">
-        <v>0.007038646918685747</v>
-      </c>
-      <c r="T24">
-        <v>0.009574635347923664</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20">
-      <c r="A25" t="s">
-        <v>25</v>
-      </c>
-      <c r="B25" t="s">
-        <v>26</v>
-      </c>
-      <c r="C25" t="s">
-        <v>27</v>
-      </c>
-      <c r="D25" t="s">
-        <v>25</v>
-      </c>
-      <c r="E25">
-        <v>3</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>0.7426199999999999</v>
-      </c>
-      <c r="H25">
-        <v>2.22786</v>
-      </c>
-      <c r="I25">
-        <v>0.03251387432162973</v>
-      </c>
-      <c r="J25">
-        <v>0.04024890562346509</v>
-      </c>
-      <c r="K25">
-        <v>1</v>
-      </c>
-      <c r="L25">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M25">
-        <v>0.04417666666666667</v>
-      </c>
-      <c r="N25">
-        <v>0.13253</v>
-      </c>
-      <c r="O25">
-        <v>0.07193266455621487</v>
-      </c>
-      <c r="P25">
-        <v>0.07904490046175629</v>
-      </c>
-      <c r="Q25">
-        <v>0.0328064762</v>
-      </c>
-      <c r="R25">
-        <v>0.2952582858</v>
-      </c>
-      <c r="S25">
-        <v>0.00233880961500072</v>
-      </c>
-      <c r="T25">
-        <v>0.003181470738701421</v>
+        <v>0.000535208531298777</v>
       </c>
     </row>
   </sheetData>
